--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.096137</v>
+        <v>0.9965010000000001</v>
       </c>
       <c r="H2">
-        <v>10.192274</v>
+        <v>1.993002</v>
       </c>
       <c r="I2">
-        <v>0.5636530534423333</v>
+        <v>0.4549725620393161</v>
       </c>
       <c r="J2">
-        <v>0.4744570273450183</v>
+        <v>0.3874032076098121</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>10.289335025302</v>
+        <v>10.798476460893</v>
       </c>
       <c r="R2">
-        <v>41.15734010120799</v>
+        <v>43.193905843572</v>
       </c>
       <c r="S2">
-        <v>0.002240720041608477</v>
+        <v>0.008402716529632077</v>
       </c>
       <c r="T2">
-        <v>0.001284382471835296</v>
+        <v>0.004890177879746077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.096137</v>
+        <v>0.9965010000000001</v>
       </c>
       <c r="H3">
-        <v>10.192274</v>
+        <v>1.993002</v>
       </c>
       <c r="I3">
-        <v>0.5636530534423333</v>
+        <v>0.4549725620393161</v>
       </c>
       <c r="J3">
-        <v>0.4744570273450183</v>
+        <v>0.3874032076098121</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>711.9039239232164</v>
+        <v>139.20602450315</v>
       </c>
       <c r="R3">
-        <v>4271.423543539299</v>
+        <v>835.2361470188999</v>
       </c>
       <c r="S3">
-        <v>0.1550321168580715</v>
+        <v>0.1083216477206873</v>
       </c>
       <c r="T3">
-        <v>0.1332967950702301</v>
+        <v>0.09456087035305707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.096137</v>
+        <v>0.9965010000000001</v>
       </c>
       <c r="H4">
-        <v>10.192274</v>
+        <v>1.993002</v>
       </c>
       <c r="I4">
-        <v>0.5636530534423333</v>
+        <v>0.4549725620393161</v>
       </c>
       <c r="J4">
-        <v>0.4744570273450183</v>
+        <v>0.3874032076098121</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>949.6898649002857</v>
+        <v>149.59560704088</v>
       </c>
       <c r="R4">
-        <v>5698.139189401714</v>
+        <v>897.5736422452801</v>
       </c>
       <c r="S4">
-        <v>0.2068150282172447</v>
+        <v>0.1164061879094744</v>
       </c>
       <c r="T4">
-        <v>0.1778198027119479</v>
+        <v>0.1016183807652623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.096137</v>
+        <v>0.9965010000000001</v>
       </c>
       <c r="H5">
-        <v>10.192274</v>
+        <v>1.993002</v>
       </c>
       <c r="I5">
-        <v>0.5636530534423333</v>
+        <v>0.4549725620393161</v>
       </c>
       <c r="J5">
-        <v>0.4744570273450183</v>
+        <v>0.3874032076098121</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>152.6972066274565</v>
+        <v>32.35561318872301</v>
       </c>
       <c r="R5">
-        <v>610.788826509826</v>
+        <v>129.422452754892</v>
       </c>
       <c r="S5">
-        <v>0.03325304213988602</v>
+        <v>0.02517716705239557</v>
       </c>
       <c r="T5">
-        <v>0.01906066963591374</v>
+        <v>0.01465250255201547</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.096137</v>
+        <v>0.9965010000000001</v>
       </c>
       <c r="H6">
-        <v>10.192274</v>
+        <v>1.993002</v>
       </c>
       <c r="I6">
-        <v>0.5636530534423333</v>
+        <v>0.4549725620393161</v>
       </c>
       <c r="J6">
-        <v>0.4744570273450183</v>
+        <v>0.3874032076098121</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>31.86979009766733</v>
+        <v>51.907976582407</v>
       </c>
       <c r="R6">
-        <v>191.218740586004</v>
+        <v>311.447859494442</v>
       </c>
       <c r="S6">
-        <v>0.006940319973846182</v>
+        <v>0.04039162509899811</v>
       </c>
       <c r="T6">
-        <v>0.005967295216142397</v>
+        <v>0.03526042397531036</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.096137</v>
+        <v>0.9965010000000001</v>
       </c>
       <c r="H7">
-        <v>10.192274</v>
+        <v>1.993002</v>
       </c>
       <c r="I7">
-        <v>0.5636530534423333</v>
+        <v>0.4549725620393161</v>
       </c>
       <c r="J7">
-        <v>0.4744570273450183</v>
+        <v>0.3874032076098121</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>731.8317697149753</v>
+        <v>200.82941714792</v>
       </c>
       <c r="R7">
-        <v>4390.990618289852</v>
+        <v>1204.97650288752</v>
       </c>
       <c r="S7">
-        <v>0.1593718262116764</v>
+        <v>0.1562732177281285</v>
       </c>
       <c r="T7">
-        <v>0.1370280822389489</v>
+        <v>0.1364208520844208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.054014</v>
       </c>
       <c r="I8">
-        <v>0.03885938240873872</v>
+        <v>0.1604104260826323</v>
       </c>
       <c r="J8">
-        <v>0.04906504173848075</v>
+        <v>0.2048810811357181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>0.7093675835479999</v>
+        <v>3.807236643834</v>
       </c>
       <c r="R8">
-        <v>4.256205501288</v>
+        <v>22.843419863004</v>
       </c>
       <c r="S8">
-        <v>0.0001544797751666879</v>
+        <v>0.002962559616184906</v>
       </c>
       <c r="T8">
-        <v>0.000132821891039135</v>
+        <v>0.002586207112558182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.054014</v>
       </c>
       <c r="I9">
-        <v>0.03885938240873872</v>
+        <v>0.1604104260826323</v>
       </c>
       <c r="J9">
-        <v>0.04906504173848075</v>
+        <v>0.2048810811357181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>49.08009749803332</v>
@@ -1013,10 +1013,10 @@
         <v>441.7208774823</v>
       </c>
       <c r="S9">
-        <v>0.01068822794063055</v>
+        <v>0.03819114187230203</v>
       </c>
       <c r="T9">
-        <v>0.01378462629234198</v>
+        <v>0.05000922287298613</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.054014</v>
       </c>
       <c r="I10">
-        <v>0.03885938240873872</v>
+        <v>0.1604104260826323</v>
       </c>
       <c r="J10">
-        <v>0.04906504173848075</v>
+        <v>0.2048810811357181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>65.47354157753934</v>
+        <v>52.74316973744</v>
       </c>
       <c r="R10">
-        <v>589.261874197854</v>
+        <v>474.68852763696</v>
       </c>
       <c r="S10">
-        <v>0.01425824666483462</v>
+        <v>0.04104152153157791</v>
       </c>
       <c r="T10">
-        <v>0.01838888569279349</v>
+        <v>0.05374163999028459</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.054014</v>
       </c>
       <c r="I11">
-        <v>0.03885938240873872</v>
+        <v>0.1604104260826323</v>
       </c>
       <c r="J11">
-        <v>0.04906504173848075</v>
+        <v>0.2048810811357181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>10.527254503181</v>
+        <v>11.407671870374</v>
       </c>
       <c r="R11">
-        <v>63.163527019086</v>
+        <v>68.446031222244</v>
       </c>
       <c r="S11">
-        <v>0.002292532033448723</v>
+        <v>0.008876755284595353</v>
       </c>
       <c r="T11">
-        <v>0.00197112171882624</v>
+        <v>0.007749085462463174</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.054014</v>
       </c>
       <c r="I12">
-        <v>0.03885938240873872</v>
+        <v>0.1604104260826323</v>
       </c>
       <c r="J12">
-        <v>0.04906504173848075</v>
+        <v>0.2048810811357181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>2.197167837782667</v>
+        <v>18.30128085823266</v>
       </c>
       <c r="R12">
-        <v>19.774510540044</v>
+        <v>164.711527724094</v>
       </c>
       <c r="S12">
-        <v>0.0004784797070744311</v>
+        <v>0.01424094183451075</v>
       </c>
       <c r="T12">
-        <v>0.0006170961161314063</v>
+        <v>0.01864773869565247</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.054014</v>
       </c>
       <c r="I13">
-        <v>0.03885938240873872</v>
+        <v>0.1604104260826323</v>
       </c>
       <c r="J13">
-        <v>0.04906504173848075</v>
+        <v>0.2048810811357181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>50.45396352337466</v>
+        <v>70.80675861029333</v>
       </c>
       <c r="R13">
-        <v>454.085671710372</v>
+        <v>637.2608274926399</v>
       </c>
       <c r="S13">
-        <v>0.0109874162875837</v>
+        <v>0.0550975059434614</v>
       </c>
       <c r="T13">
-        <v>0.01417049002734851</v>
+        <v>0.07214718700177356</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1440186666666667</v>
+        <v>0.115181</v>
       </c>
       <c r="H14">
-        <v>0.432056</v>
+        <v>0.345543</v>
       </c>
       <c r="I14">
-        <v>0.01592903825375186</v>
+        <v>0.05258820078278944</v>
       </c>
       <c r="J14">
-        <v>0.02011248965702642</v>
+        <v>0.06716725149654505</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>0.2907803128586666</v>
+        <v>1.248146582133</v>
       </c>
       <c r="R14">
-        <v>1.744681877152</v>
+        <v>7.488879492798</v>
       </c>
       <c r="S14">
-        <v>6.332355522736746E-05</v>
+        <v>0.0009712316320802008</v>
       </c>
       <c r="T14">
-        <v>5.444566671297013E-05</v>
+        <v>0.0008478499946819415</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1440186666666667</v>
+        <v>0.115181</v>
       </c>
       <c r="H15">
-        <v>0.432056</v>
+        <v>0.345543</v>
       </c>
       <c r="I15">
-        <v>0.01592903825375186</v>
+        <v>0.05258820078278944</v>
       </c>
       <c r="J15">
-        <v>0.02011248965702642</v>
+        <v>0.06716725149654505</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>20.11866123657777</v>
+        <v>16.09018867848333</v>
       </c>
       <c r="R15">
-        <v>181.0679511292</v>
+        <v>144.81169810635</v>
       </c>
       <c r="S15">
-        <v>0.004381263447275911</v>
+        <v>0.01252040460181825</v>
       </c>
       <c r="T15">
-        <v>0.00565052314045554</v>
+        <v>0.01639478877813791</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1440186666666667</v>
+        <v>0.115181</v>
       </c>
       <c r="H16">
-        <v>0.432056</v>
+        <v>0.345543</v>
       </c>
       <c r="I16">
-        <v>0.01592903825375186</v>
+        <v>0.05258820078278944</v>
       </c>
       <c r="J16">
-        <v>0.02011248965702642</v>
+        <v>0.06716725149654505</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>26.83857755193511</v>
+        <v>17.29107307928</v>
       </c>
       <c r="R16">
-        <v>241.547197967416</v>
+        <v>155.61965771352</v>
       </c>
       <c r="S16">
-        <v>0.005844667168578205</v>
+        <v>0.01345485968363421</v>
       </c>
       <c r="T16">
-        <v>0.007537877482543479</v>
+        <v>0.01761840687805181</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1440186666666667</v>
+        <v>0.115181</v>
       </c>
       <c r="H17">
-        <v>0.432056</v>
+        <v>0.345543</v>
       </c>
       <c r="I17">
-        <v>0.01592903825375186</v>
+        <v>0.05258820078278944</v>
       </c>
       <c r="J17">
-        <v>0.02011248965702642</v>
+        <v>0.06716725149654505</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>4.315278043390666</v>
+        <v>3.739837574362999</v>
       </c>
       <c r="R17">
-        <v>25.891668260344</v>
+        <v>22.439025446178</v>
       </c>
       <c r="S17">
-        <v>0.0009397429448221005</v>
+        <v>0.002910113766330364</v>
       </c>
       <c r="T17">
-        <v>0.0008079920810816457</v>
+        <v>0.002540423787497996</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1440186666666667</v>
+        <v>0.115181</v>
       </c>
       <c r="H18">
-        <v>0.432056</v>
+        <v>0.345543</v>
       </c>
       <c r="I18">
-        <v>0.01592903825375186</v>
+        <v>0.05258820078278944</v>
       </c>
       <c r="J18">
-        <v>0.02011248965702642</v>
+        <v>0.06716725149654505</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>0.9006517440195555</v>
+        <v>5.999805971833665</v>
       </c>
       <c r="R18">
-        <v>8.105865696176</v>
+        <v>53.99825374650299</v>
       </c>
       <c r="S18">
-        <v>0.0001961359415716968</v>
+        <v>0.004668683494073463</v>
       </c>
       <c r="T18">
-        <v>0.0002529568673198562</v>
+        <v>0.00611338708225113</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1440186666666667</v>
+        <v>0.115181</v>
       </c>
       <c r="H19">
-        <v>0.432056</v>
+        <v>0.345543</v>
       </c>
       <c r="I19">
-        <v>0.01592903825375186</v>
+        <v>0.05258820078278944</v>
       </c>
       <c r="J19">
-        <v>0.02011248965702642</v>
+        <v>0.06716725149654505</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>20.68182933438755</v>
+        <v>23.21295522685333</v>
       </c>
       <c r="R19">
-        <v>186.136464009488</v>
+        <v>208.91659704168</v>
       </c>
       <c r="S19">
-        <v>0.004503905196276582</v>
+        <v>0.01806290760485296</v>
       </c>
       <c r="T19">
-        <v>0.005808694418912924</v>
+        <v>0.02365239497592427</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.545685</v>
+        <v>0.4297155</v>
       </c>
       <c r="H20">
-        <v>1.09137</v>
+        <v>0.8594310000000001</v>
       </c>
       <c r="I20">
-        <v>0.06035493481978205</v>
+        <v>0.1961952491598159</v>
       </c>
       <c r="J20">
-        <v>0.05080398799458616</v>
+        <v>0.1670576979447629</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>1.10176311651</v>
+        <v>4.656566036191501</v>
       </c>
       <c r="R20">
-        <v>4.40705246604</v>
+        <v>18.626264144766</v>
       </c>
       <c r="S20">
-        <v>0.0002399321909723231</v>
+        <v>0.003623456007459213</v>
       </c>
       <c r="T20">
-        <v>0.0001375293186080837</v>
+        <v>0.002108763797210465</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.545685</v>
+        <v>0.4297155</v>
       </c>
       <c r="H21">
-        <v>1.09137</v>
+        <v>0.8594310000000001</v>
       </c>
       <c r="I21">
-        <v>0.06035493481978205</v>
+        <v>0.1961952491598159</v>
       </c>
       <c r="J21">
-        <v>0.05080398799458616</v>
+        <v>0.1670576979447629</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>76.22936603274998</v>
+        <v>60.02902799132499</v>
       </c>
       <c r="R21">
-        <v>457.3761961964999</v>
+        <v>360.17416794795</v>
       </c>
       <c r="S21">
-        <v>0.01660055463338148</v>
+        <v>0.04671093256416102</v>
       </c>
       <c r="T21">
-        <v>0.01427317625446461</v>
+        <v>0.04077695023306459</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.545685</v>
+        <v>0.4297155</v>
       </c>
       <c r="H22">
-        <v>1.09137</v>
+        <v>0.8594310000000001</v>
       </c>
       <c r="I22">
-        <v>0.06035493481978205</v>
+        <v>0.1961952491598159</v>
       </c>
       <c r="J22">
-        <v>0.05080398799458616</v>
+        <v>0.1670576979447629</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>101.691048323095</v>
+        <v>64.50926900964001</v>
       </c>
       <c r="R22">
-        <v>610.14628993857</v>
+        <v>387.05561405784</v>
       </c>
       <c r="S22">
-        <v>0.02214537377482732</v>
+        <v>0.0501971831845766</v>
       </c>
       <c r="T22">
-        <v>0.01904061822570101</v>
+        <v>0.04382032060151979</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.545685</v>
+        <v>0.4297155</v>
       </c>
       <c r="H23">
-        <v>1.09137</v>
+        <v>0.8594310000000001</v>
       </c>
       <c r="I23">
-        <v>0.06035493481978205</v>
+        <v>0.1961952491598159</v>
       </c>
       <c r="J23">
-        <v>0.05080398799458616</v>
+        <v>0.1670576979447629</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>16.3505367297825</v>
+        <v>13.9525283960565</v>
       </c>
       <c r="R23">
-        <v>65.40214691912999</v>
+        <v>55.810113584226</v>
       </c>
       <c r="S23">
-        <v>0.003560674742477234</v>
+        <v>0.0108570075980894</v>
       </c>
       <c r="T23">
-        <v>0.002040981533713397</v>
+        <v>0.006318515947691576</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.545685</v>
+        <v>0.4297155</v>
       </c>
       <c r="H24">
-        <v>1.09137</v>
+        <v>0.8594310000000001</v>
       </c>
       <c r="I24">
-        <v>0.06035493481978205</v>
+        <v>0.1961952491598159</v>
       </c>
       <c r="J24">
-        <v>0.05080398799458616</v>
+        <v>0.1670576979447629</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>3.412558651669999</v>
+        <v>22.3839836699585</v>
       </c>
       <c r="R24">
-        <v>20.47535191002</v>
+        <v>134.303902019751</v>
       </c>
       <c r="S24">
-        <v>0.0007431567292889209</v>
+        <v>0.0174178524409193</v>
       </c>
       <c r="T24">
-        <v>0.0006389670234573097</v>
+        <v>0.01520515355103756</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.545685</v>
+        <v>0.4297155</v>
       </c>
       <c r="H25">
-        <v>1.09137</v>
+        <v>0.8594310000000001</v>
       </c>
       <c r="I25">
-        <v>0.06035493481978205</v>
+        <v>0.1961952491598159</v>
       </c>
       <c r="J25">
-        <v>0.05080398799458616</v>
+        <v>0.1670576979447629</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>78.36320319821</v>
+        <v>86.60253567676</v>
       </c>
       <c r="R25">
-        <v>470.17921918926</v>
+        <v>519.61521406056</v>
       </c>
       <c r="S25">
-        <v>0.01706524274883478</v>
+        <v>0.0673888173646104</v>
       </c>
       <c r="T25">
-        <v>0.01467271563864174</v>
+        <v>0.05882799381423895</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.756382333333333</v>
+        <v>0.1600013333333334</v>
       </c>
       <c r="H26">
-        <v>8.269147</v>
+        <v>0.480004</v>
       </c>
       <c r="I26">
-        <v>0.3048668665378966</v>
+        <v>0.07305182489166924</v>
       </c>
       <c r="J26">
-        <v>0.3849342064684463</v>
+        <v>0.09330401538259382</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>5.565262724587333</v>
+        <v>1.733837328524001</v>
       </c>
       <c r="R26">
-        <v>33.391576347524</v>
+        <v>10.403023971144</v>
       </c>
       <c r="S26">
-        <v>0.00121195351236349</v>
+        <v>0.00134916658223441</v>
       </c>
       <c r="T26">
-        <v>0.001042039044851956</v>
+        <v>0.001177773500974729</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.756382333333333</v>
+        <v>0.1600013333333334</v>
       </c>
       <c r="H27">
-        <v>8.269147</v>
+        <v>0.480004</v>
       </c>
       <c r="I27">
-        <v>0.3048668665378966</v>
+        <v>0.07305182489166924</v>
       </c>
       <c r="J27">
-        <v>0.3849342064684463</v>
+        <v>0.09330401538259382</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>385.0523247182388</v>
+        <v>22.35135692642222</v>
       </c>
       <c r="R27">
-        <v>3465.47092246415</v>
+        <v>201.1622123378</v>
       </c>
       <c r="S27">
-        <v>0.08385327710123516</v>
+        <v>0.01739246429674792</v>
       </c>
       <c r="T27">
-        <v>0.1081457183219965</v>
+        <v>0.02277448593275311</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.756382333333333</v>
+        <v>0.1600013333333334</v>
       </c>
       <c r="H28">
-        <v>8.269147</v>
+        <v>0.480004</v>
       </c>
       <c r="I28">
-        <v>0.3048668665378966</v>
+        <v>0.07305182489166924</v>
       </c>
       <c r="J28">
-        <v>0.3849342064684463</v>
+        <v>0.09330401538259382</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>513.6652263777186</v>
+        <v>24.01954096117334</v>
       </c>
       <c r="R28">
-        <v>4622.987037399467</v>
+        <v>216.17586865056</v>
       </c>
       <c r="S28">
-        <v>0.1118614531057246</v>
+        <v>0.01869054348542195</v>
       </c>
       <c r="T28">
-        <v>0.1442679119631297</v>
+        <v>0.02447425002124883</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.756382333333333</v>
+        <v>0.1600013333333334</v>
       </c>
       <c r="H29">
-        <v>8.269147</v>
+        <v>0.480004</v>
       </c>
       <c r="I29">
-        <v>0.3048668665378966</v>
+        <v>0.07305182489166924</v>
       </c>
       <c r="J29">
-        <v>0.3849342064684463</v>
+        <v>0.09330401538259382</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>82.59037829973383</v>
+        <v>5.195118972297334</v>
       </c>
       <c r="R29">
-        <v>495.542269798403</v>
+        <v>31.170713833784</v>
       </c>
       <c r="S29">
-        <v>0.01798579941708213</v>
+        <v>0.00404252509324061</v>
       </c>
       <c r="T29">
-        <v>0.01546421133672498</v>
+        <v>0.003528977810848977</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.756382333333333</v>
+        <v>0.1600013333333334</v>
       </c>
       <c r="H30">
-        <v>8.269147</v>
+        <v>0.480004</v>
       </c>
       <c r="I30">
-        <v>0.3048668665378966</v>
+        <v>0.07305182489166924</v>
       </c>
       <c r="J30">
-        <v>0.3849342064684463</v>
+        <v>0.09330401538259382</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>17.23763046249578</v>
+        <v>8.334507906987112</v>
       </c>
       <c r="R30">
-        <v>155.138674162462</v>
+        <v>75.01057116288399</v>
       </c>
       <c r="S30">
-        <v>0.003753858140703454</v>
+        <v>0.006485406308011562</v>
       </c>
       <c r="T30">
-        <v>0.004841357417851823</v>
+        <v>0.008492286786388008</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.756382333333333</v>
+        <v>0.1600013333333334</v>
       </c>
       <c r="H31">
-        <v>8.269147</v>
+        <v>0.480004</v>
       </c>
       <c r="I31">
-        <v>0.3048668665378966</v>
+        <v>0.07305182489166924</v>
       </c>
       <c r="J31">
-        <v>0.3849342064684463</v>
+        <v>0.09330401538259382</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>395.8308344172117</v>
+        <v>32.24580257944889</v>
       </c>
       <c r="R31">
-        <v>3562.477509754906</v>
+        <v>290.21222321504</v>
       </c>
       <c r="S31">
-        <v>0.08620052526078774</v>
+        <v>0.02509171912601279</v>
       </c>
       <c r="T31">
-        <v>0.1111729683838913</v>
+        <v>0.03285624133038016</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.1477046666666667</v>
+        <v>0.1375073333333333</v>
       </c>
       <c r="H32">
-        <v>0.443114</v>
+        <v>0.412522</v>
       </c>
       <c r="I32">
-        <v>0.01633672453749746</v>
+        <v>0.0627817370437771</v>
       </c>
       <c r="J32">
-        <v>0.02062724679644214</v>
+        <v>0.080186746430568</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>0.2982225164146667</v>
+        <v>1.490083504382</v>
       </c>
       <c r="R32">
-        <v>1.789335098488</v>
+        <v>8.940501026292001</v>
       </c>
       <c r="S32">
-        <v>6.494425225206851E-05</v>
+        <v>0.001159492205974332</v>
       </c>
       <c r="T32">
-        <v>5.583914390692652E-05</v>
+        <v>0.001012194648730213</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.1477046666666667</v>
+        <v>0.1375073333333333</v>
       </c>
       <c r="H33">
-        <v>0.443114</v>
+        <v>0.412522</v>
       </c>
       <c r="I33">
-        <v>0.01633672453749746</v>
+        <v>0.0627817370437771</v>
       </c>
       <c r="J33">
-        <v>0.02062724679644214</v>
+        <v>0.080186746430568</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>20.63357633081111</v>
+        <v>19.20906172032222</v>
       </c>
       <c r="R33">
-        <v>185.7021869773</v>
+        <v>172.8815554829</v>
       </c>
       <c r="S33">
-        <v>0.00449339708550794</v>
+        <v>0.01494732159861803</v>
       </c>
       <c r="T33">
-        <v>0.005795142090052716</v>
+        <v>0.01957270457319351</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.1477046666666667</v>
+        <v>0.1375073333333333</v>
       </c>
       <c r="H34">
-        <v>0.443114</v>
+        <v>0.412522</v>
       </c>
       <c r="I34">
-        <v>0.01633672453749746</v>
+        <v>0.0627817370437771</v>
       </c>
       <c r="J34">
-        <v>0.02062724679644214</v>
+        <v>0.080186746430568</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>27.52548154255045</v>
+        <v>20.64272188645333</v>
       </c>
       <c r="R34">
-        <v>247.729333882954</v>
+        <v>185.78449697808</v>
       </c>
       <c r="S34">
-        <v>0.005994255021889206</v>
+        <v>0.01606290860012257</v>
       </c>
       <c r="T34">
-        <v>0.007730801198918129</v>
+        <v>0.02103350506926111</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.1477046666666667</v>
+        <v>0.1375073333333333</v>
       </c>
       <c r="H35">
-        <v>0.443114</v>
+        <v>0.412522</v>
       </c>
       <c r="I35">
-        <v>0.01633672453749746</v>
+        <v>0.0627817370437771</v>
       </c>
       <c r="J35">
-        <v>0.02062724679644214</v>
+        <v>0.080186746430568</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>4.425722857497667</v>
+        <v>4.464756270135333</v>
       </c>
       <c r="R35">
-        <v>26.554337144986</v>
+        <v>26.788537620812</v>
       </c>
       <c r="S35">
-        <v>0.000963794636000658</v>
+        <v>0.003474201332725984</v>
       </c>
       <c r="T35">
-        <v>0.0008286717532366461</v>
+        <v>0.00303285177724986</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.1477046666666667</v>
+        <v>0.1375073333333333</v>
       </c>
       <c r="H36">
-        <v>0.443114</v>
+        <v>0.412522</v>
       </c>
       <c r="I36">
-        <v>0.01633672453749746</v>
+        <v>0.0627817370437771</v>
       </c>
       <c r="J36">
-        <v>0.02062724679644214</v>
+        <v>0.080186746430568</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>0.9237029387382223</v>
+        <v>7.162790040929111</v>
       </c>
       <c r="R36">
-        <v>8.313326448644</v>
+        <v>64.46511036836199</v>
       </c>
       <c r="S36">
-        <v>0.0002011558261280965</v>
+        <v>0.005573646846679498</v>
       </c>
       <c r="T36">
-        <v>0.0002594310212231071</v>
+        <v>0.007298387366968513</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.1477046666666667</v>
+        <v>0.1375073333333333</v>
       </c>
       <c r="H37">
-        <v>0.443114</v>
+        <v>0.412522</v>
       </c>
       <c r="I37">
-        <v>0.01633672453749746</v>
+        <v>0.0627817370437771</v>
       </c>
       <c r="J37">
-        <v>0.02062724679644214</v>
+        <v>0.080186746430568</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>21.21115809913022</v>
+        <v>27.71248358696889</v>
       </c>
       <c r="R37">
-        <v>190.900422892172</v>
+        <v>249.41235228272</v>
       </c>
       <c r="S37">
-        <v>0.004619177715719494</v>
+        <v>0.02156416645965669</v>
       </c>
       <c r="T37">
-        <v>0.00595736158910461</v>
+        <v>0.0282371029951648</v>
       </c>
     </row>
   </sheetData>
